--- a/data/outputs/数学期刊(下)_altmetric/56Results in Mathematics.xlsx
+++ b/data/outputs/数学期刊(下)_altmetric/56Results in Mathematics.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE61"/>
+  <dimension ref="A1:CF61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1039,6 +1044,9 @@
         <v>0</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,6 +1292,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1535,6 +1546,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1786,6 +1800,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2031,6 +2048,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2272,6 +2292,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2521,6 +2544,9 @@
         <v>0</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2766,6 +2792,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3027,6 +3056,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3282,6 +3314,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3537,6 +3572,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3796,6 +3834,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4043,6 +4084,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4298,6 +4342,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4557,6 +4604,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4806,6 +4856,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5047,6 +5100,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5298,6 +5354,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5553,6 +5612,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5808,6 +5870,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6059,6 +6124,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6310,6 +6378,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6557,6 +6628,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6806,6 +6880,9 @@
         <v>0</v>
       </c>
       <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7047,6 +7124,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7298,6 +7378,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7543,6 +7626,9 @@
         <v>0</v>
       </c>
       <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7784,6 +7870,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8033,6 +8122,9 @@
         <v>0</v>
       </c>
       <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8274,6 +8366,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8513,6 +8608,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8760,6 +8858,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9015,6 +9116,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9274,6 +9378,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9525,6 +9632,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9774,6 +9884,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10019,6 +10132,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10266,6 +10382,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10517,6 +10636,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10768,6 +10890,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11015,6 +11140,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11266,6 +11394,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11525,6 +11656,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11770,6 +11904,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12003,6 +12140,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12246,6 +12386,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12489,6 +12632,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12736,6 +12882,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12991,6 +13140,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13242,6 +13394,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13493,6 +13648,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13744,6 +13902,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13993,6 +14154,9 @@
         <v>0</v>
       </c>
       <c r="CE54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14234,6 +14398,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14481,6 +14648,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14740,6 +14910,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14989,6 +15162,9 @@
         <v>0</v>
       </c>
       <c r="CE58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15226,6 +15402,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15477,6 +15656,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15724,6 +15906,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
